--- a/biology/Botanique/Quercus_graciliformis/Quercus_graciliformis.xlsx
+++ b/biology/Botanique/Quercus_graciliformis/Quercus_graciliformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus graciliformis est une espèce de petits arbres de la famille des Fagaceae[1]. Cette espèce de chêne est endémique des États-Unis (monts Chisos au Texas[2]) et du Mexique (Coahuila)[1]. L'espèce est menacée par la destruction de son habitat[3].
-C'est un petit chêne atteignant 8 m en hauteur[1],[2] de la section des chênes rouges[1]. Il garde ses feuilles pendant l'hiver jusqu'à ce que les nouvelles feuilles apparaissent au printemps.
-Les feuilles elliptiques, qui mesurent entre 4,5 et 10,2 cm de long, sont à bord ondulé avec des terminaisons aristées[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus graciliformis est une espèce de petits arbres de la famille des Fagaceae. Cette espèce de chêne est endémique des États-Unis (monts Chisos au Texas) et du Mexique (Coahuila). L'espèce est menacée par la destruction de son habitat.
+C'est un petit chêne atteignant 8 m en hauteur, de la section des chênes rouges. Il garde ses feuilles pendant l'hiver jusqu'à ce que les nouvelles feuilles apparaissent au printemps.
+Les feuilles elliptiques, qui mesurent entre 4,5 et 10,2 cm de long, sont à bord ondulé avec des terminaisons aristées,.
 </t>
         </is>
       </c>
